--- a/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 21,66</t>
+          <t>14,16; 21,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,87</t>
+          <t>12,65; 20,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,59</t>
+          <t>10,12; 19,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 25,38</t>
+          <t>15,54; 24,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,34; 100,5</t>
+          <t>55,4; 99,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,24; 71,39</t>
+          <t>36,61; 71,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,43; 64,19</t>
+          <t>28,15; 63,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,68; 82,4</t>
+          <t>42,14; 82,05</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,62</t>
+          <t>1,05; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,15</t>
+          <t>1,95; 6,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,24</t>
+          <t>3,29; 7,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,25</t>
+          <t>-7,33; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 96,05</t>
+          <t>16,89; 92,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,9; 87,24</t>
+          <t>22,44; 86,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,83; 90,03</t>
+          <t>33,93; 95,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 17,27</t>
+          <t>-37,05; 17,39</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,65</t>
+          <t>1,08; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,14</t>
+          <t>-2,81; 4,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,94</t>
+          <t>-2,21; 5,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,63</t>
+          <t>-0,36; 4,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 198,5</t>
+          <t>10,22; 206,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 94,18</t>
+          <t>-30,15; 91,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 96,35</t>
+          <t>-23,85; 98,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 87,92</t>
+          <t>-4,91; 86,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,39; 11,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,71</t>
+          <t>8,71; 12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,76</t>
+          <t>6,87; 10,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,97</t>
+          <t>0,26; 8,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>68,36; 114,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,25; 92,54</t>
+          <t>55,2; 92,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,53; 84,07</t>
+          <t>46,76; 81,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 54,08</t>
+          <t>0,33; 54,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 21,76</t>
+          <t>13,98; 21,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,89</t>
+          <t>12,48; 21,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,43</t>
+          <t>9,91; 19,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>55,4; 99,9</t>
+          <t>54,27; 102,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,61; 71,65</t>
+          <t>36,01; 73,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,15; 63,91</t>
+          <t>27,6; 63,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,46</t>
+          <t>1,09; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 6,09</t>
+          <t>1,86; 5,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,54</t>
+          <t>3,17; 7,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 92,77</t>
+          <t>15,63; 98,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,44; 86,56</t>
+          <t>21,27; 82,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,93; 95,04</t>
+          <t>32,4; 89,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,48</t>
+          <t>1,13; 7,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,87</t>
+          <t>-2,64; 4,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 5,13</t>
+          <t>-2,25; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 206,01</t>
+          <t>13,02; 208,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 91,27</t>
+          <t>-30,24; 91,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-23,85; 98,8</t>
+          <t>-28,11; 86,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,45; 11,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,7</t>
+          <t>8,58; 12,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,59</t>
+          <t>6,86; 10,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>68,36; 114,23</t>
+          <t>69,17; 112,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,2; 92,51</t>
+          <t>55,87; 92,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,76; 81,71</t>
+          <t>45,4; 80,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,67</t>
+          <t>14,02; 21,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 21,21</t>
+          <t>12,73; 20,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,55</t>
+          <t>10,25; 19,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 24,66</t>
+          <t>15,5; 25,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,27; 102,23</t>
+          <t>54,34; 100,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,01; 73,26</t>
+          <t>37,24; 71,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,6; 63,49</t>
+          <t>29,43; 64,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,14; 82,05</t>
+          <t>41,68; 82,4</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,71</t>
+          <t>1,1; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,88</t>
+          <t>2,15; 6,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,25</t>
+          <t>3,24; 7,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,23</t>
+          <t>-8,45; 2,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 98,06</t>
+          <t>17,2; 96,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,27; 82,6</t>
+          <t>23,9; 87,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 89,48</t>
+          <t>32,83; 90,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 17,39</t>
+          <t>-39,15; 17,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,93</t>
+          <t>1,02; 7,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,87</t>
+          <t>-2,63; 5,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 4,78</t>
+          <t>-2,14; 4,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,5</t>
+          <t>-0,09; 4,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 208,96</t>
+          <t>9,93; 198,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 91,12</t>
+          <t>-29,2; 94,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 86,2</t>
+          <t>-25,19; 96,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 86,28</t>
+          <t>-1,51; 87,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,78</t>
+          <t>8,59; 12,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,52</t>
+          <t>8,77; 12,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,7</t>
+          <t>6,84; 10,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 8,0</t>
+          <t>0,18; 7,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>69,17; 112,43</t>
+          <t>70,45; 116,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,87; 92,6</t>
+          <t>55,25; 92,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,4; 80,07</t>
+          <t>46,53; 84,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 54,43</t>
+          <t>-0,24; 54,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,24</t>
+          <t>20,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>60,43%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 25,38</t>
+          <t>15,28; 25,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,68; 82,4</t>
+          <t>41,12; 82,19</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,93%</t>
+          <t>-40,33%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,25</t>
+          <t>-32,33; 1,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 17,27</t>
+          <t>-74,91; 10,47</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>33,6%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,63</t>
+          <t>-0,02; 4,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 87,92</t>
+          <t>-0,95; 86,16</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>-0,62%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 7,97</t>
+          <t>-21,97; 6,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 54,08</t>
+          <t>-54,35; 47,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 21,66</t>
+          <t>14,22; 21,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 20,87</t>
+          <t>12,52; 21,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,59</t>
+          <t>10,03; 19,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 25,03</t>
+          <t>15,06; 24,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,34; 100,5</t>
+          <t>55,06; 98,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>37,24; 71,39</t>
+          <t>36,79; 72,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,43; 64,19</t>
+          <t>28,27; 63,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>41,12; 82,19</t>
+          <t>41,56; 82,21</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,62</t>
+          <t>1,07; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,15</t>
+          <t>1,79; 6,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,24</t>
+          <t>3,08; 7,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 1,39</t>
+          <t>-36,61; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 96,05</t>
+          <t>16,5; 91,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,9; 87,24</t>
+          <t>20,26; 85,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,83; 90,03</t>
+          <t>31,53; 89,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,91; 10,47</t>
+          <t>-74,0; 11,09</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,65</t>
+          <t>0,8; 7,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 5,14</t>
+          <t>-2,63; 5,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,94</t>
+          <t>-2,12; 4,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 4,53</t>
+          <t>-0,27; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 198,5</t>
+          <t>9,93; 209,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 94,18</t>
+          <t>-28,83; 104,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,19; 96,35</t>
+          <t>-25,41; 85,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 86,16</t>
+          <t>-3,89; 89,83</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,48; 12,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 12,71</t>
+          <t>8,7; 12,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,76</t>
+          <t>6,92; 10,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 6,96</t>
+          <t>-19,89; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>71,36; 115,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,25; 92,54</t>
+          <t>55,54; 91,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,53; 84,07</t>
+          <t>46,61; 80,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 47,91</t>
+          <t>-49,81; 46,32</t>
         </is>
       </c>
     </row>
